--- a/dist/document/dest/2020/10/doctors/176.xlsx
+++ b/dist/document/dest/2020/10/doctors/176.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>330</v>
       </c>
-      <c r="C2" s="1">
-        <v>2214300</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>1168</v>
       </c>
-      <c r="C3" s="1">
-        <v>6716000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>42</v>
       </c>
-      <c r="C4" s="1">
-        <v>480480</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>2652</v>
       </c>
-      <c r="C5" s="1">
-        <v>20420400</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>3041</v>
       </c>
-      <c r="C6" s="1">
-        <v>9092590</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>217</v>
       </c>
-      <c r="C7" s="1">
-        <v>3043425</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>180</v>
       </c>
-      <c r="C8" s="1">
-        <v>621000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>30</v>
       </c>
-      <c r="C9" s="1">
-        <v>127650</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>50</v>
       </c>
-      <c r="C10" s="1">
-        <v>863500</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>305</v>
       </c>
-      <c r="C11" s="1">
-        <v>1052250</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>75</v>
       </c>
-      <c r="C12" s="1">
-        <v>18375</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>30</v>
       </c>
-      <c r="C13" s="1">
-        <v>32700</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>4433</v>
       </c>
-      <c r="C14" s="1">
-        <v>14784055</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>120</v>
       </c>
-      <c r="C15" s="1">
-        <v>303600</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>59</v>
       </c>
-      <c r="C16" s="1">
-        <v>389400</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
-        <v>313500</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>1295</v>
       </c>
-      <c r="C18" s="1">
-        <v>3872050</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>40</v>
       </c>
-      <c r="C19" s="1">
-        <v>193200</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>4416</v>
       </c>
-      <c r="C20" s="1">
-        <v>18282240</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>643</v>
       </c>
-      <c r="C21" s="1">
-        <v>1922570</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>14</v>
       </c>
-      <c r="C22" s="1">
-        <v>48300</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>3195</v>
       </c>
-      <c r="C23" s="1">
-        <v>14697000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>120</v>
       </c>
-      <c r="C24" s="1">
-        <v>686400</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>720</v>
       </c>
-      <c r="C25" s="1">
-        <v>1321200</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>1980</v>
       </c>
-      <c r="C26" s="1">
-        <v>10375200</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>1476</v>
       </c>
-      <c r="C27" s="1">
-        <v>7999920</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>6404</v>
       </c>
-      <c r="C28" s="1">
-        <v>16202120</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>7425</v>
       </c>
-      <c r="C29" s="1">
-        <v>63706500</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>530</v>
       </c>
-      <c r="C30" s="1">
-        <v>1828500</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>20</v>
       </c>
-      <c r="C31" s="1">
-        <v>75900</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>570</v>
       </c>
-      <c r="C32" s="1">
-        <v>3323100</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>116</v>
       </c>
-      <c r="C33" s="1">
-        <v>2296800</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>540</v>
       </c>
-      <c r="C34" s="1">
-        <v>1925100</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>540</v>
       </c>
-      <c r="C35" s="1">
-        <v>7722000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>3</v>
       </c>
-      <c r="C36" s="1">
-        <v>888000</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>2745</v>
       </c>
-      <c r="C37" s="1">
-        <v>4639050</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>710</v>
       </c>
-      <c r="C38" s="1">
-        <v>820050</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>20</v>
       </c>
-      <c r="C39" s="1">
-        <v>374000</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>704</v>
       </c>
-      <c r="C40" s="1">
-        <v>3886080</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>1477</v>
       </c>
-      <c r="C41" s="1">
-        <v>8610910</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>384</v>
       </c>
-      <c r="C42" s="1">
-        <v>441600</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>1372</v>
       </c>
-      <c r="C43" s="1">
-        <v>2908640</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>60</v>
       </c>
-      <c r="C44" s="1">
-        <v>8988000</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>30</v>
       </c>
-      <c r="C45" s="1">
-        <v>151800</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>67</v>
       </c>
-      <c r="C46" s="1">
-        <v>269675</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>870</v>
       </c>
-      <c r="C47" s="1">
-        <v>569850</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>134</v>
       </c>
-      <c r="C48" s="1">
-        <v>339020</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>56</v>
       </c>
-      <c r="C49" s="1">
-        <v>369600</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>216</v>
       </c>
-      <c r="C50" s="1">
-        <v>533520</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>10</v>
       </c>
-      <c r="C51" s="1">
-        <v>2680000</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>30</v>
       </c>
-      <c r="C52" s="1">
-        <v>198000</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>475</v>
       </c>
-      <c r="C53" s="1">
-        <v>1501000</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>10</v>
       </c>
-      <c r="C54" s="1">
-        <v>115500</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>915</v>
       </c>
-      <c r="C55" s="1">
-        <v>8052000</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>120</v>
       </c>
-      <c r="C56" s="1">
-        <v>2178000</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>60</v>
       </c>
-      <c r="C57" s="1">
-        <v>72300</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>120</v>
       </c>
-      <c r="C58" s="1">
-        <v>858000</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>150</v>
       </c>
-      <c r="C59" s="1">
-        <v>1155000</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>4</v>
       </c>
-      <c r="C60" s="1">
-        <v>440000</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>2088</v>
       </c>
-      <c r="C61" s="1">
-        <v>8404200</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>11210</v>
       </c>
-      <c r="C62" s="1">
-        <v>14180650</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>1512</v>
       </c>
-      <c r="C63" s="1">
-        <v>3885840</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>220</v>
       </c>
-      <c r="C64" s="1">
-        <v>354200</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>1155</v>
       </c>
-      <c r="C65" s="1">
-        <v>9909900</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>44</v>
       </c>
-      <c r="C66" s="1">
-        <v>151800</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>750</v>
       </c>
-      <c r="C67" s="1">
-        <v>1466250</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>2821</v>
       </c>
-      <c r="C68" s="1">
-        <v>6812715</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>10</v>
       </c>
-      <c r="C69" s="1">
-        <v>180400</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>120</v>
       </c>
-      <c r="C70" s="1">
-        <v>1029600</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>1200</v>
       </c>
-      <c r="C71" s="1">
-        <v>12540000</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>1416</v>
       </c>
-      <c r="C72" s="1">
-        <v>16510560</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>1157</v>
       </c>
-      <c r="C73" s="1">
-        <v>11199760</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1197,7 +981,7 @@
         <v>77251</v>
       </c>
       <c r="C74" s="1">
-        <v>354616795</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/176.xlsx
+++ b/dist/document/dest/2020/10/doctors/176.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,10 @@
         <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B2" s="1">
-        <v>330</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>402600</v>
       </c>
     </row>
     <row r="3">
@@ -410,583 +413,1577 @@
         <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>1168</v>
+        <v>420</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2415000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Asentra (Sertraline 50mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>345000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>2652</v>
+        <v>120</v>
+      </c>
+      <c r="C5" s="1">
+        <v>690000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>3041</v>
+        <v>124</v>
+      </c>
+      <c r="C6" s="1">
+        <v>713000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B7" s="1">
-        <v>217</v>
+        <v>1150</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8855000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B8" s="1">
-        <v>180</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <v>246400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Chondrasil (Allopurinol 300mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B9" s="1">
-        <v>30</v>
+        <v>150</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1155000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Cododamed (Pregabalina 75mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B10" s="1">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>246400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B11" s="1">
-        <v>305</v>
+        <v>300</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2310000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Diurefar (Furosemide 40mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>420750</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Dochicin (Colchicine 1mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1262250</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B14" s="1">
-        <v>4433</v>
+        <v>180</v>
+      </c>
+      <c r="C14" s="1">
+        <v>621000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Dopegyt (Methyldopa 250mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>120</v>
+        <v>80</v>
+      </c>
+      <c r="C15" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>E-Cox (Etoricoxib 60mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>59</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>103500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B17" s="1">
         <v>30</v>
       </c>
+      <c r="C17" s="1">
+        <v>7350</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Fagendol (Flunarizine 5mg)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>1295</v>
+        <v>630</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2101050</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Fenafex (Fexofenadine 180mg)</v>
+        <v>E-Cox (Etoricoxib 60mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>92400</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Flodilan-4 (Glimepirid)</v>
+        <v>Eprex 2.000 IU/0.5ml</v>
       </c>
       <c r="B20" s="1">
-        <v>4416</v>
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2304000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Fluostine (Flunarizin 5mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B21" s="1">
-        <v>643</v>
+        <v>60</v>
+      </c>
+      <c r="C21" s="1">
+        <v>627000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Gabena (Olanzapine 10mg)</v>
+        <v>Europlin (Amitriptyline 25mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C22" s="1">
+        <v>72450</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Genprid 2 (Glimepiride 2mg)</v>
+        <v>Fagendol (Flunarizine 5mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>3195</v>
+        <v>60</v>
+      </c>
+      <c r="C23" s="1">
+        <v>179400</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Genprid 4 (Glimepiride 4mg)</v>
+        <v>Fagendol (Flunarizine 5mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>120</v>
+        <v>423</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1264770</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Glucophage 500mg (Metformin)</v>
+        <v>Fagendol (Flunarizine 5mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>720</v>
+        <v>90</v>
+      </c>
+      <c r="C25" s="1">
+        <v>269100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Glucovance 500/2.5 (Metformin-glibenclamide)</v>
+        <v>Fagendol (Flunarizine 5mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>1980</v>
+        <v>60</v>
+      </c>
+      <c r="C26" s="1">
+        <v>179400</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Glucovance 500/5 (Mefformin-glibenclamide)</v>
+        <v>Fenafex (Fexofenadine 180mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>1476</v>
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
+        <v>144900</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B28" s="1">
-        <v>6404</v>
+        <v>240</v>
+      </c>
+      <c r="C28" s="1">
+        <v>993600</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Goldagtin (Vildagliptin 50mg)</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B29" s="1">
-        <v>7425</v>
+        <v>60</v>
+      </c>
+      <c r="C29" s="1">
+        <v>248400</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Hemfibrat (Fenofibrat 300mg)</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B30" s="1">
-        <v>530</v>
+        <v>210</v>
+      </c>
+      <c r="C30" s="1">
+        <v>869400</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B31" s="1">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="C31" s="1">
+        <v>264960</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B32" s="1">
-        <v>570</v>
+        <v>2944</v>
+      </c>
+      <c r="C32" s="1">
+        <v>12188160</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B33" s="1">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="C33" s="1">
+        <v>513360</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B34" s="1">
-        <v>540</v>
+        <v>450</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1863000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Ketovital</v>
+        <v>Fluostine (Flunarizin 5mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>540</v>
+        <v>244</v>
+      </c>
+      <c r="C35" s="1">
+        <v>729560</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Lantus Solostar 100IU/ml</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>120</v>
+      </c>
+      <c r="C36" s="1">
+        <v>552000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Levothyrox 100mcg (Levothyroxine)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>2745</v>
+        <v>120</v>
+      </c>
+      <c r="C37" s="1">
+        <v>552000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Levothyrox 50mcg (Levothyroxine)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>710</v>
+        <v>32</v>
+      </c>
+      <c r="C38" s="1">
+        <v>147200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Locinvid (Levofloxacin 500mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B39" s="1">
-        <v>20</v>
+        <v>1777</v>
+      </c>
+      <c r="C39" s="1">
+        <v>8174200</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>704</v>
+        <v>405</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1863000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>1477</v>
+        <v>184</v>
+      </c>
+      <c r="C41" s="1">
+        <v>846400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Lothisil (PTU-Propylthiouracil 50mg)</v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>384</v>
+        <v>60</v>
+      </c>
+      <c r="C42" s="1">
+        <v>343200</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>1372</v>
+        <v>180</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1029600</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Mixtard 30 Flexpen 100IU/ml</v>
+        <v>Glucovance 500/2.5 (Metformin-glibenclamide)</v>
       </c>
       <c r="B44" s="1">
-        <v>60</v>
+        <v>915</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4794600</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Nadebo (Rebamipide 100mg)</v>
+        <v>Glucovance 500/2.5 (Metformin-glibenclamide)</v>
       </c>
       <c r="B45" s="1">
-        <v>30</v>
+        <v>390</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2043600</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Nevol (Nebivolol 2.5mg)</v>
+        <v>Glucovance 500/2.5 (Metformin-glibenclamide)</v>
       </c>
       <c r="B46" s="1">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="C46" s="1">
+        <v>314400</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Nifedipin 20</v>
+        <v>Glucovance 500/5 (Mefformin-glibenclamide)</v>
       </c>
       <c r="B47" s="1">
-        <v>870</v>
+        <v>90</v>
+      </c>
+      <c r="C47" s="1">
+        <v>487800</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Nilkey (Fluoxetin 20mg)</v>
+        <v>Glucovance 500/5 (Mefformin-glibenclamide)</v>
       </c>
       <c r="B48" s="1">
-        <v>134</v>
+        <v>450</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2439000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Noraquick (Gabapentin 300mg)</v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>56</v>
+        <v>370</v>
+      </c>
+      <c r="C49" s="1">
+        <v>936100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>216</v>
+        <v>120</v>
+      </c>
+      <c r="C50" s="1">
+        <v>303600</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v xml:space="preserve">Novomix Flexpen </v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>10</v>
+        <v>64</v>
+      </c>
+      <c r="C51" s="1">
+        <v>161920</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Pantonix (Pantoprazole 40mg)</v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B52" s="1">
-        <v>30</v>
+        <v>3286</v>
+      </c>
+      <c r="C52" s="1">
+        <v>8313580</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>PhilBone-A (Calcitriol 0.25mcg)</v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B53" s="1">
-        <v>475</v>
+        <v>124</v>
+      </c>
+      <c r="C53" s="1">
+        <v>313720</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Prazogood (Esomeprazole 40mg)</v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B54" s="1">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C54" s="1">
+        <v>75900</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B55" s="1">
-        <v>915</v>
+        <v>495</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1252350</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Prorid (Finasteride 5 mg)</v>
+        <v>Goldagtin (Vildagliptin 50mg)</v>
       </c>
       <c r="B56" s="1">
-        <v>120</v>
+        <v>180</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1544400</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Regurgex (Domperidone 10mg)</v>
+        <v>Goldagtin (Vildagliptin 50mg)</v>
       </c>
       <c r="B57" s="1">
-        <v>60</v>
+        <v>240</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2059200</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Rotalzon (Losartan 50mg)</v>
+        <v>Goldagtin (Vildagliptin 50mg)</v>
       </c>
       <c r="B58" s="1">
-        <v>120</v>
+        <v>1920</v>
+      </c>
+      <c r="C58" s="1">
+        <v>16473600</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Sagason (Clopidogrel 75mg)</v>
+        <v>Goldagtin (Vildagliptin 50mg)</v>
       </c>
       <c r="B59" s="1">
-        <v>150</v>
+        <v>30</v>
+      </c>
+      <c r="C59" s="1">
+        <v>257400</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Stroseca (Ivermectin 6mg)</v>
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
       </c>
       <c r="B60" s="1">
-        <v>4</v>
+        <v>150</v>
+      </c>
+      <c r="C60" s="1">
+        <v>517500</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Targinos (Arginine 400mg)</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B61" s="1">
-        <v>2088</v>
+        <v>28</v>
+      </c>
+      <c r="C61" s="1">
+        <v>554400</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Tazilex (Methimazol 5mg)</v>
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
       </c>
       <c r="B62" s="1">
-        <v>11210</v>
+        <v>120</v>
+      </c>
+      <c r="C62" s="1">
+        <v>427800</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Thyrozol 10mg (Thiamazole)</v>
+        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
       </c>
       <c r="B63" s="1">
-        <v>1512</v>
+        <v>180</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2106000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Thyrozol 5mg (Thiamazole)</v>
+        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
       </c>
       <c r="B64" s="1">
-        <v>220</v>
+        <v>120</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1404000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Toropi (Lercanidipine 10mg)</v>
+        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
       </c>
       <c r="B65" s="1">
-        <v>1155</v>
+        <v>540</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6318000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Triglo (Fenofibrate 200mg)</v>
+        <v>Ketovital</v>
       </c>
       <c r="B66" s="1">
-        <v>44</v>
+        <v>360</v>
+      </c>
+      <c r="C66" s="1">
+        <v>5148000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Trisova (Trimetazidine 20mg)</v>
+        <v>Lantus Solostar 100IU/ml</v>
       </c>
       <c r="B67" s="1">
-        <v>750</v>
+        <v>2</v>
+      </c>
+      <c r="C67" s="1">
+        <v>592000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Tyrozet (Metformin 850mg)</v>
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
       </c>
       <c r="B68" s="1">
-        <v>2821</v>
+        <v>90</v>
+      </c>
+      <c r="C68" s="1">
+        <v>152100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Vexinir (Cefdinir 300mg)</v>
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
       </c>
       <c r="B69" s="1">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="C69" s="1">
+        <v>152100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Vigorito (Vildagliptin 50mg)</v>
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
       </c>
       <c r="B70" s="1">
-        <v>120</v>
+        <v>970</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1639300</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Zlatko-50 (Sitagliptin)</v>
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
       </c>
       <c r="B71" s="1">
-        <v>1200</v>
+        <v>60</v>
+      </c>
+      <c r="C71" s="1">
+        <v>69300</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
       </c>
       <c r="B72" s="1">
-        <v>1416</v>
+        <v>30</v>
+      </c>
+      <c r="C72" s="1">
+        <v>34650</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
       </c>
       <c r="B73" s="1">
-        <v>1157</v>
+        <v>664</v>
+      </c>
+      <c r="C73" s="1">
+        <v>766920</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>60</v>
+      </c>
+      <c r="C74" s="1">
+        <v>331200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B75" s="1">
+        <v>60</v>
+      </c>
+      <c r="C75" s="1">
+        <v>349800</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B76" s="1">
+        <v>120</v>
+      </c>
+      <c r="C76" s="1">
+        <v>699600</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B77" s="1">
+        <v>300</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1749000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1112</v>
+      </c>
+      <c r="C78" s="1">
+        <v>6482960</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B79" s="1">
+        <v>30</v>
+      </c>
+      <c r="C79" s="1">
+        <v>174900</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Lothisil (PTU-Propylthiouracil 50mg)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>214</v>
+      </c>
+      <c r="C80" s="1">
+        <v>246100</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Mageum (Magnesium Valproate 200mg)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>60</v>
+      </c>
+      <c r="C81" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>30</v>
+      </c>
+      <c r="C82" s="1">
+        <v>89700</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>120</v>
+      </c>
+      <c r="C83" s="1">
+        <v>358800</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Medrol 4mg (Methylprednisolone)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B85" s="1">
+        <v>392</v>
+      </c>
+      <c r="C85" s="1">
+        <v>831040</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B86" s="1">
+        <v>60</v>
+      </c>
+      <c r="C86" s="1">
+        <v>127200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Mixtard 30 Flexpen 100IU/ml</v>
+      </c>
+      <c r="B87" s="1">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1">
+        <v>449400</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Mixtard 30 Flexpen 100IU/ml</v>
+      </c>
+      <c r="B88" s="1">
+        <v>17</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2546600</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Nevol (Nebivolol 2.5mg)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>190</v>
+      </c>
+      <c r="C89" s="1">
+        <v>764750</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Nilkey (Fluoxetin 20mg)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>44</v>
+      </c>
+      <c r="C90" s="1">
+        <v>111320</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Nilkey (Fluoxetin 20mg)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>30</v>
+      </c>
+      <c r="C91" s="1">
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>55</v>
+      </c>
+      <c r="C92" s="1">
+        <v>135850</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>20</v>
+      </c>
+      <c r="C93" s="1">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>30</v>
+      </c>
+      <c r="C94" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>PhilBone-A (Calcitriol 0.25mcg)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>180</v>
+      </c>
+      <c r="C95" s="1">
+        <v>568800</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B96" s="1">
+        <v>60</v>
+      </c>
+      <c r="C96" s="1">
+        <v>200100</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B97" s="1">
+        <v>210</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1848000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B98" s="1">
+        <v>60</v>
+      </c>
+      <c r="C98" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>482</v>
+      </c>
+      <c r="C99" s="1">
+        <v>4241600</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>90</v>
+      </c>
+      <c r="C100" s="1">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>330</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2359500</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>240</v>
+      </c>
+      <c r="C102" s="1">
+        <v>966000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>90</v>
+      </c>
+      <c r="C103" s="1">
+        <v>362250</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>210</v>
+      </c>
+      <c r="C104" s="1">
+        <v>845250</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>902</v>
+      </c>
+      <c r="C105" s="1">
+        <v>3630550</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>180</v>
+      </c>
+      <c r="C106" s="1">
+        <v>724500</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>150</v>
+      </c>
+      <c r="C107" s="1">
+        <v>603750</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>996</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1259940</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>390</v>
+      </c>
+      <c r="C109" s="1">
+        <v>493350</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>150</v>
+      </c>
+      <c r="C110" s="1">
+        <v>189750</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>160</v>
+      </c>
+      <c r="C111" s="1">
+        <v>202400</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>660</v>
+      </c>
+      <c r="C112" s="1">
+        <v>834900</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>5552</v>
+      </c>
+      <c r="C113" s="1">
+        <v>7023280</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>420</v>
+      </c>
+      <c r="C114" s="1">
+        <v>531300</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>780</v>
+      </c>
+      <c r="C115" s="1">
+        <v>986700</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Thyrozol 10mg (Thiamazole)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>120</v>
+      </c>
+      <c r="C116" s="1">
+        <v>308400</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Thyrozol 10mg (Thiamazole)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>30</v>
+      </c>
+      <c r="C117" s="1">
+        <v>77100</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Thyrozol 10mg (Thiamazole)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>514</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1320980</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Thyrozol 10mg (Thiamazole)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45</v>
+      </c>
+      <c r="C119" s="1">
+        <v>115650</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Thyrozol 10mg (Thiamazole)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>60</v>
+      </c>
+      <c r="C120" s="1">
+        <v>154200</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>60</v>
+      </c>
+      <c r="C121" s="1">
+        <v>96600</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>60</v>
+      </c>
+      <c r="C122" s="1">
+        <v>514800</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>60</v>
+      </c>
+      <c r="C123" s="1">
+        <v>514800</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>600</v>
+      </c>
+      <c r="C124" s="1">
+        <v>5148000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>30</v>
+      </c>
+      <c r="C125" s="1">
+        <v>257400</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>30</v>
+      </c>
+      <c r="C126" s="1">
+        <v>257400</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>30</v>
+      </c>
+      <c r="C127" s="1">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>510</v>
+      </c>
+      <c r="C128" s="1">
+        <v>997050</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>120</v>
+      </c>
+      <c r="C129" s="1">
+        <v>289800</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>32</v>
+      </c>
+      <c r="C130" s="1">
+        <v>77280</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>450</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1086750</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2364</v>
+      </c>
+      <c r="C132" s="1">
+        <v>5709060</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>394</v>
+      </c>
+      <c r="C133" s="1">
+        <v>951510</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>120</v>
+      </c>
+      <c r="C134" s="1">
+        <v>289800</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>60</v>
+      </c>
+      <c r="C135" s="1">
+        <v>144900</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>60</v>
+      </c>
+      <c r="C136" s="1">
+        <v>514800</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>250</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2145000</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Zlatko-50 (Sitagliptin)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>680</v>
+      </c>
+      <c r="C138" s="1">
+        <v>7106000</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Zlatko-50 (Sitagliptin)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>180</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1881000</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>60</v>
+      </c>
+      <c r="C140" s="1">
+        <v>699600</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>360</v>
+      </c>
+      <c r="C141" s="1">
+        <v>4197600</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>120</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1399200</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B143" s="1">
+        <v>890</v>
+      </c>
+      <c r="C143" s="1">
+        <v>8615200</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B144" s="1">
+        <v>90</v>
+      </c>
+      <c r="C144" s="1">
+        <v>871200</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B74" s="1">
-        <v>77251</v>
-      </c>
-      <c r="C74" s="1">
-        <v>NaN</v>
+      <c r="B145" s="1">
+        <v>47283</v>
+      </c>
+      <c r="C145" s="1">
+        <v>211022870</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C74"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C145"/>
   </ignoredErrors>
 </worksheet>
 </file>